--- a/s20/hello/helloRefTable.xlsx
+++ b/s20/hello/helloRefTable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="5445"/>
   </bookViews>
   <sheets>
-    <sheet name="helloRefTable" sheetId="1" r:id="rId1"/>
+    <sheet name="tblHello" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -25,11 +25,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,7 +65,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,6 +152,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -186,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,14 +363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
@@ -376,12 +378,12 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
